--- a/biology/Zoologie/Ariane_du_Yucatan/Ariane_du_Yucatan.xlsx
+++ b/biology/Zoologie/Ariane_du_Yucatan/Ariane_du_Yucatan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amazilia yucatanensis
 L’Ariane du Yucatan ou Colibri à ventre fauve (Amazilia yucatanensis) est une espèce de colibris de la sous-famille des Trochilinae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parties supérieures sont bronze-vert métallique ou verdâtre, plus terne et plus foncé sur le haut de la tête. Le dessus de la couverture caudale est plus ou moins teinté de roux-cannelle et est parfois uniquement de cette couleur. La paire centrale des rectrices est majoritairement bronze métallique avec la partie basale châtaigne. Le reste des rectrices est châtaigne avec les extrémités margées de bronze métallique. Les rémiges sont sombres légèrement lustrées de violet. Le menton, la gorge et la poitrine sont vert-émeraude métallique jaunâtre avec la partie basse chamois clair ou de manière subterminale sur la poitrine. Les parties inférieures, y compris sous les couvertures caudale et alaire ainsi que les axillaires, sont roux-cannelle avec la présence d'une touffe de plumes blanches sur le fémur. Le bec est brunâtre avec l'extrémité sombre, l'œil est brun foncé et les pattes sont sombres.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Ariane du Yucatan est présente le long de la côte du Golfe du Mexique aux États-Unis, au Mexique, au Guatemala et au Bélize. Elle est non-nicheuse dans le nord de son aire.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce fréquente les lisières et les forêts arides à semi-humides, les broussailles ainsi que les clairières fleuries.
 </t>
@@ -605,7 +623,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid, posé sur une petite branche tombante ou une fourche horizontale dans les broussailles ou un arbre, reçoit 2 œufs blancs que la femelle couve seule.
 </t>
@@ -636,7 +656,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 10.1, 2020) du Congrès ornithologique international, cette espèce est constituée des trois sous-espèces suivantes (ordre phylogénique) :
 Amazilia yucatanensis chalconota Oberholser, 1898 ;
@@ -669,9 +691,11 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un timbre a été émis en 2015 par Antigua-et-Barbuda[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un timbre a été émis en 2015 par Antigua-et-Barbuda.
 </t>
         </is>
       </c>
